--- a/output/fundación valle.xlsx
+++ b/output/fundación valle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -666,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ69"/>
+  <dimension ref="A1:AM69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,7 +684,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,10 +793,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -886,15 +904,24 @@
         <v>0.1765377584535638</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>557811</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -993,15 +1020,24 @@
         <v>0.1765377584535638</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>109681</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1100,15 +1136,24 @@
         <v>0.1765377584535638</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>885882</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1207,15 +1252,24 @@
         <v>0.1765377584535638</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>537513</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1314,15 +1368,24 @@
         <v>0.1765377584535638</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>350000</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1421,15 +1484,24 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>185923</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1528,15 +1600,24 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>497476</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1635,15 +1716,24 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>12000</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1742,15 +1832,24 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>497750</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1849,15 +1948,24 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>186387</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1956,15 +2064,24 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>173808</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2063,15 +2180,24 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>730000</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2170,15 +2296,24 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>400000</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2277,15 +2412,24 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2384,15 +2528,24 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>215242</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2491,15 +2644,24 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>479562</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2598,15 +2760,24 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>459111</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2705,15 +2876,24 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>126250</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2812,15 +2992,24 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>761226</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2919,15 +3108,24 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>310755</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3026,15 +3224,24 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>17989</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3133,15 +3340,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>37157.65</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3240,15 +3456,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>403459</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3347,15 +3572,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>260737.155</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3454,15 +3688,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>187303.5</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3561,15 +3804,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>14675</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3668,15 +3920,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>20903.265</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3775,15 +4036,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>5563.5</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3882,15 +4152,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>341867.175</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3989,15 +4268,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>30000</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4096,15 +4384,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>3679</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4203,15 +4500,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>150000</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4310,15 +4616,24 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>197215.94</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4417,15 +4732,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>37157.65</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4524,15 +4848,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>403459</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4631,15 +4964,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>260737.155</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4738,15 +5080,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>187303.5</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4845,15 +5196,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>14675</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4952,15 +5312,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>20903.265</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5059,15 +5428,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>5563.5</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5166,15 +5544,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>341867.175</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5273,15 +5660,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>30000</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5380,15 +5776,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>3679</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5487,15 +5892,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>150000</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5594,15 +6008,24 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>197215.94</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5701,15 +6124,24 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>12782.5</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5808,15 +6240,24 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>67500</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5915,15 +6356,24 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>31906.5</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6022,15 +6472,24 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>4000</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6129,15 +6588,24 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>334908.5</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6236,15 +6704,24 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>67750</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6343,15 +6820,24 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>35000</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6450,15 +6936,24 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6557,15 +7052,24 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>1358</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6664,15 +7168,24 @@
         <v>1</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>12782.5</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6771,15 +7284,24 @@
         <v>1</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>67500</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6878,15 +7400,24 @@
         <v>1</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>31906.5</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6985,15 +7516,24 @@
         <v>1</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7092,15 +7632,24 @@
         <v>1</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>334908.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7199,15 +7748,24 @@
         <v>1</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>67750</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7306,15 +7864,24 @@
         <v>1</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>35000</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7413,15 +7980,24 @@
         <v>1</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>6000</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7520,15 +8096,24 @@
         <v>1</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>1358</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7627,15 +8212,24 @@
         <v>1</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>75190</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7734,15 +8328,24 @@
         <v>1</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>4000</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7841,15 +8444,24 @@
         <v>1</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>270155</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7948,15 +8560,24 @@
         <v>1</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>186638</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8055,9 +8676,18 @@
         <v>1</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>10224</v>
       </c>
     </row>

--- a/output/fundación valle.xlsx
+++ b/output/fundación valle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -675,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM69"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,7 +690,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,10 +808,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -862,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>427626</v>
+        <v>415607</v>
       </c>
       <c r="U2">
         <v>6</v>
@@ -898,30 +910,36 @@
         <v>4093293</v>
       </c>
       <c r="AG2">
-        <v>2422292</v>
+        <v>2410273</v>
       </c>
       <c r="AH2">
-        <v>0.1765377584535638</v>
+        <v>0.172431504646984</v>
       </c>
       <c r="AI2">
+        <v>0.2139035702594685</v>
+      </c>
+      <c r="AJ2">
         <v>1988</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>557811</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -978,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>427626</v>
+        <v>415607</v>
       </c>
       <c r="U3">
         <v>6</v>
@@ -1014,30 +1032,36 @@
         <v>2565774</v>
       </c>
       <c r="AG3">
-        <v>2422292</v>
+        <v>2410273</v>
       </c>
       <c r="AH3">
-        <v>0.1765377584535638</v>
+        <v>0.172431504646984</v>
       </c>
       <c r="AI3">
+        <v>0.2139035702594685</v>
+      </c>
+      <c r="AJ3">
         <v>1988</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>109681</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1094,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>427626</v>
+        <v>415607</v>
       </c>
       <c r="U4">
         <v>6</v>
@@ -1130,30 +1154,36 @@
         <v>3881838</v>
       </c>
       <c r="AG4">
-        <v>2422292</v>
+        <v>2410273</v>
       </c>
       <c r="AH4">
-        <v>0.1765377584535638</v>
+        <v>0.172431504646984</v>
       </c>
       <c r="AI4">
+        <v>0.2139035702594685</v>
+      </c>
+      <c r="AJ4">
         <v>1988</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>885882</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1210,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>427626</v>
+        <v>415607</v>
       </c>
       <c r="U5">
         <v>6</v>
@@ -1246,30 +1276,36 @@
         <v>5201043</v>
       </c>
       <c r="AG5">
-        <v>2422292</v>
+        <v>2410273</v>
       </c>
       <c r="AH5">
-        <v>0.1765377584535638</v>
+        <v>0.172431504646984</v>
       </c>
       <c r="AI5">
+        <v>0.2139035702594685</v>
+      </c>
+      <c r="AJ5">
         <v>1988</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>537513</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1326,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>427626</v>
+        <v>415607</v>
       </c>
       <c r="U6">
         <v>6</v>
@@ -1362,30 +1398,36 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>2422292</v>
+        <v>2410273</v>
       </c>
       <c r="AH6">
-        <v>0.1765377584535638</v>
+        <v>0.172431504646984</v>
       </c>
       <c r="AI6">
+        <v>0.2139035702594685</v>
+      </c>
+      <c r="AJ6">
         <v>1988</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>350000</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1484,24 +1526,30 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI7">
+        <v>0.3313190571082845</v>
+      </c>
+      <c r="AJ7">
         <v>1988</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>185923</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1600,24 +1648,30 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI8">
+        <v>0.3313190571082845</v>
+      </c>
+      <c r="AJ8">
         <v>1988</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>497476</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1716,24 +1770,30 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI9">
+        <v>0.3313190571082845</v>
+      </c>
+      <c r="AJ9">
         <v>1988</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>12000</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1832,24 +1892,30 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI10">
+        <v>0.3313190571082845</v>
+      </c>
+      <c r="AJ10">
         <v>1988</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>497750</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1948,24 +2014,30 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI11">
+        <v>0.3313190571082845</v>
+      </c>
+      <c r="AJ11">
         <v>1988</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>186387</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2064,24 +2136,30 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI12">
+        <v>0.3313190571082845</v>
+      </c>
+      <c r="AJ12">
         <v>1988</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>173808</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2180,24 +2258,30 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI13">
+        <v>0.3313190571082845</v>
+      </c>
+      <c r="AJ13">
         <v>1988</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>730000</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2296,24 +2380,30 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI14">
+        <v>0.3313190571082845</v>
+      </c>
+      <c r="AJ14">
         <v>1988</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>400000</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2412,24 +2502,30 @@
         <v>0.45034026100368</v>
       </c>
       <c r="AI15">
+        <v>0.3313190571082845</v>
+      </c>
+      <c r="AJ15">
         <v>1988</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2528,24 +2624,30 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI16">
+        <v>0.4532239724741418</v>
+      </c>
+      <c r="AJ16">
         <v>1988</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>215242</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2644,24 +2746,30 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI17">
+        <v>0.4532239724741418</v>
+      </c>
+      <c r="AJ17">
         <v>1988</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>479562</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2760,24 +2868,30 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI18">
+        <v>0.4532239724741418</v>
+      </c>
+      <c r="AJ18">
         <v>1988</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>459111</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2876,24 +2990,30 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI19">
+        <v>0.4532239724741418</v>
+      </c>
+      <c r="AJ19">
         <v>1988</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>126250</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2992,24 +3112,30 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI20">
+        <v>0.4532239724741418</v>
+      </c>
+      <c r="AJ20">
         <v>1988</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>761226</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3108,24 +3234,30 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI21">
+        <v>0.4532239724741418</v>
+      </c>
+      <c r="AJ21">
         <v>1988</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>310755</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3224,24 +3356,30 @@
         <v>0.1005875192763281</v>
       </c>
       <c r="AI22">
+        <v>0.4532239724741418</v>
+      </c>
+      <c r="AJ22">
         <v>1988</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>17989</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3340,24 +3478,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI23">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ23">
         <v>1988</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>37157.65</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3456,24 +3600,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI24">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ24">
         <v>1988</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>403459</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3572,24 +3722,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI25">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ25">
         <v>1988</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>260737.155</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3688,24 +3844,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI26">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ26">
         <v>1988</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>187303.5</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3804,24 +3966,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI27">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ27">
         <v>1988</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>14675</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3920,24 +4088,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI28">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ28">
         <v>1988</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>20903.265</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4036,24 +4210,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI29">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ29">
         <v>1988</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>5563.5</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4152,24 +4332,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI30">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ30">
         <v>1988</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>341867.175</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4268,24 +4454,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI31">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ31">
         <v>1988</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>30000</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4384,24 +4576,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI32">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ32">
         <v>1988</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>3679</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4500,24 +4698,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI33">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ33">
         <v>1988</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>150000</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4616,24 +4820,30 @@
         <v>0.6664173594646579</v>
       </c>
       <c r="AI34">
+        <v>0.3335826405353423</v>
+      </c>
+      <c r="AJ34">
         <v>1988</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>197215.94</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4732,24 +4942,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI35">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ35">
         <v>1988</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>37157.65</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4848,24 +5064,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI36">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ36">
         <v>1988</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>403459</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4964,24 +5186,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI37">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ37">
         <v>1988</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>260737.155</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5080,24 +5308,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI38">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ38">
         <v>1988</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>187303.5</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5196,24 +5430,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI39">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ39">
         <v>1988</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>14675</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5312,24 +5552,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI40">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ40">
         <v>1988</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>20903.265</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5428,24 +5674,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI41">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ41">
         <v>1988</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>5563.5</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5544,24 +5796,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI42">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ42">
         <v>1988</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>341867.175</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5660,24 +5918,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI43">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ43">
         <v>1988</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>30000</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5776,24 +6040,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI44">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ44">
         <v>1988</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>3679</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5892,24 +6162,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI45">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ45">
         <v>1988</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>150000</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6008,24 +6284,30 @@
         <v>0.2675486264662894</v>
       </c>
       <c r="AI46">
+        <v>0.7324513735337106</v>
+      </c>
+      <c r="AJ46">
         <v>1988</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>197215.94</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6124,24 +6406,30 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI47">
+        <v>0.7379272163670518</v>
+      </c>
+      <c r="AJ47">
         <v>1988</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>12782.5</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6240,24 +6528,30 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI48">
+        <v>0.7379272163670518</v>
+      </c>
+      <c r="AJ48">
         <v>1988</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>67500</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6356,24 +6650,30 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI49">
+        <v>0.7379272163670518</v>
+      </c>
+      <c r="AJ49">
         <v>1988</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>31906.5</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6472,24 +6772,30 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI50">
+        <v>0.7379272163670518</v>
+      </c>
+      <c r="AJ50">
         <v>1988</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>4000</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6588,24 +6894,30 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI51">
+        <v>0.7379272163670518</v>
+      </c>
+      <c r="AJ51">
         <v>1988</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>334908.5</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6704,24 +7016,30 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI52">
+        <v>0.7379272163670518</v>
+      </c>
+      <c r="AJ52">
         <v>1988</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>67750</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6820,24 +7138,30 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI53">
+        <v>0.7379272163670518</v>
+      </c>
+      <c r="AJ53">
         <v>1988</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>35000</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6936,24 +7260,30 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI54">
+        <v>0.7379272163670518</v>
+      </c>
+      <c r="AJ54">
         <v>1988</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7052,24 +7382,30 @@
         <v>0.2620727836329481</v>
       </c>
       <c r="AI55">
+        <v>0.7379272163670518</v>
+      </c>
+      <c r="AJ55">
         <v>1988</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>1358</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7168,24 +7504,30 @@
         <v>1</v>
       </c>
       <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
         <v>1988</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>12782.5</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7284,24 +7626,30 @@
         <v>1</v>
       </c>
       <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
         <v>1988</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>67500</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7400,24 +7748,30 @@
         <v>1</v>
       </c>
       <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
         <v>1988</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>31906.5</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7516,24 +7870,30 @@
         <v>1</v>
       </c>
       <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
         <v>1988</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7632,24 +7992,30 @@
         <v>1</v>
       </c>
       <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
         <v>1988</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <v>1</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>334908.5</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7748,24 +8114,30 @@
         <v>1</v>
       </c>
       <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
         <v>1988</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <v>1</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>67750</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7864,24 +8236,30 @@
         <v>1</v>
       </c>
       <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
         <v>1988</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>35000</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7980,24 +8358,30 @@
         <v>1</v>
       </c>
       <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
         <v>1988</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>6000</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8096,24 +8480,30 @@
         <v>1</v>
       </c>
       <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
         <v>1988</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>1358</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8212,24 +8602,30 @@
         <v>1</v>
       </c>
       <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
         <v>1988</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>75190</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8328,24 +8724,30 @@
         <v>1</v>
       </c>
       <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
         <v>1988</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>4000</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8444,24 +8846,30 @@
         <v>1</v>
       </c>
       <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
         <v>1988</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>270155</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8560,24 +8968,30 @@
         <v>1</v>
       </c>
       <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
         <v>1988</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>186638</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8676,18 +9090,24 @@
         <v>1</v>
       </c>
       <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
         <v>1988</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
         <v>0</v>
       </c>
       <c r="AL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>10224</v>
       </c>
     </row>

--- a/output/fundación valle.xlsx
+++ b/output/fundación valle.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D3">
         <v>276387</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D4">
         <v>515566</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6780</v>
+        <v>8573.70829393744</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1330</v>
+        <v>1286.515571617672</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2120</v>
+        <v>2812.435974421079</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D11">
         <v>300000</v>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D13">
         <v>417924</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7440</v>
+        <v>9070.488252857474</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1350</v>
+        <v>1303.425880277445</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2120</v>
+        <v>2828.483778716848</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D19">
         <v>343720</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D20">
         <v>449992</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8280</v>
+        <v>9603.24465538973</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>12360</v>
+        <v>11745.7759262897</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2390</v>
+        <v>2860.874335573629</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1360</v>
+        <v>1325.930225429421</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1480</v>
+        <v>1469.177610078392</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>8780</v>
+        <v>8629.143035230249</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D36">
         <v>170000</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5459,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>12810</v>
+        <v>11993.48398487312</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>2490</v>
+        <v>2887.250212489506</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1430</v>
+        <v>1360.10887014004</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1520</v>
+        <v>1544.619247249133</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>9250</v>
+        <v>8965.648525048287</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>12100</v>
+        <v>11951.20944634967</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1480</v>
+        <v>1401.753174264641</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>2590</v>
+        <v>3008.669179463094</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1450</v>
+        <v>1379.14068216006</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>10160</v>
+        <v>11431.15448084494</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1440</v>
+        <v>1441.783971398429</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>2410</v>
+        <v>3012.536723186288</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1480</v>
+        <v>1463.71052702022</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7899,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1380</v>
+        <v>1469.192636109792</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1530</v>
+        <v>1529.507453727912</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1360</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D69">
         <v>0</v>

--- a/output/fundación valle.xlsx
+++ b/output/fundación valle.xlsx
@@ -948,7 +948,7 @@
         <v>2870.311589353206</v>
       </c>
       <c r="D3">
-        <v>276387</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>325000</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>37157.65</v>
+        <v>459111</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>170000</v>
       </c>
       <c r="E36">
-        <v>403459</v>
+        <v>761226</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>260737.155</v>
+        <v>126250</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>187303.5</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>14675</v>
+        <v>310755</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>20903.265</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>5563.5</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>341867.175</v>
+        <v>479562</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>30000</v>
+        <v>215242</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>3679</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>197215.94</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>12782.5</v>
+        <v>5563.5</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>67500</v>
+        <v>30000</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>31906.5</v>
+        <v>341867.175</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>334908.5</v>
+        <v>37157.65</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>67750</v>
+        <v>260737.155</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>35000</v>
+        <v>403459</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1358</v>
+        <v>3679</v>
       </c>
       <c r="F64">
         <v>0</v>
